--- a/biology/Botanique/La_Parrina/La_Parrina.xlsx
+++ b/biology/Botanique/La_Parrina/La_Parrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antica Fattoria La Parrina est une ferme et un domaine viticole proche de la ville italienne d’Orbetello dans la province de Grosseto, en Toscane.
 Le domaine compte 4,5 kilomètres carrés, dont moins du quart destiné à la production de vin, même si ce domaine représente la quasi-totalité des vins d’origine contrôlée « La Parrina. »
